--- a/charts/sum portion.xlsx
+++ b/charts/sum portion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\Github\Precision-Forecasts-of-Land-Cover-Change\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75247008-403B-478E-A194-91EF4A78DB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81BE028-8598-4BD0-9F9F-4BAEFC86CFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="1920" windowWidth="13395" windowHeight="9285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jam-14" sheetId="1" r:id="rId1"/>
@@ -1607,39 +1607,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12966111708361178"/>
+          <c:y val="3.2793566978725298E-2"/>
+          <c:w val="0.74067737842732762"/>
+          <c:h val="0.37975625898297438"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -2045,6 +2025,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12859226545021354"/>
+          <c:y val="0.4778219351025042"/>
+          <c:w val="0.7723353768970761"/>
+          <c:h val="0.50704257244577644"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9781,16 +9771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>257173</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>145115</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>297517</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>107016</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9817,15 +9807,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64994</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228602</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>217396</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10155,8 +10145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
